--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Bell/Thomas_Bell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Bell/Thomas_Bell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Bell est un chirurgien-dentaire et un zoologiste britannique, né le 11 octobre 1792 à Poole dans le Dorset et mort le 13 mars 1880.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit une formation médicale dans les hôpitaux Guy's et St Thomas' de Londres en 1813 et au Royal College of Surgeons en 1815. Il passe l'essentiel de sa carrière à l'hôpital Guy's (1817-1861). Il se spécialise dans les maladies des dents tout en donnant des cours de zoologie au King's College (à partir de 1836).
 Il est un membre influent de la communauté scientifique britannique et participe activement à la vie de nombreuses sociétés savantes dont la Royal Society dont il devient membre en 1828. Il préside la Linnean Society of London (1853-1861) lorsque les articles sur la sélection naturelle de Charles Darwin (1809-1882) et d'Alfred Russel Wallace (1823-1913) y sont lus. Bell sera hostile au darwinisme toute sa vie.
